--- a/tables/cadastros.xlsx
+++ b/tables/cadastros.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,25 +441,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>nome_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_nascimento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>turma_hidro</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>turma_pilts</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>exames</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>diabetes</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hipertensao</t>
         </is>
@@ -475,17 +481,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adeilda Alves Siqueira</t>
+          <t>Selecionar Nome Completo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GT9K3H692X49F522SY39P1GQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>28/06/00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +506,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>09/05/23</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HAS</t>
         </is>
       </c>
     </row>
@@ -510,22 +526,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adeilda Mendes Da Silva</t>
+          <t>Adinete de Mendonça Almeida Pessoa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9QRFRMRYPSRDT72MHX</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t> </t>
+          <t>27/10/39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -534,6 +550,16 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>05/02/23</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -545,30 +571,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adinete De Mendonça Almeida Pessoa</t>
+          <t>Albanita Angela de Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>01GX3KEJ9SP079PGRZQF68T733</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30/09/55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>29/04/23</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -580,30 +616,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Albanita Angelo De Barros</t>
+          <t>Alderice Ferreira de Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>01GX3KEJ9SZCQGJ28DAN9EVZFN</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>09/08/44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>26/03/23</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -615,30 +661,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alda Gomes De Oliveira</t>
+          <t>Amara Maria A. da Silva (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9T9DK3EVS7XP06MQND</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>06/04/44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>30/08/23</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -650,22 +706,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aldeci José De Miranda</t>
+          <t>Carlos Roberto de Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJ9TKGN0XWYKH9PSWN23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t> </t>
+          <t>03/12/53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -674,6 +730,16 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>20/09/23</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -685,30 +751,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alderice Ferreira De Lima</t>
+          <t>Clara Virgínia Correia da Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>01GX3KEJ9T0BTFJDFVBSYVFVV2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>14/12/22</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -720,30 +796,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Almira Gomes De Oliveira</t>
+          <t>Diva Cunha dos Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9V51SGJXJ7DJK5CYQW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>13/06/43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>07/05/23</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -755,22 +841,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Altamira Anacleto Da Silva</t>
+          <t>Edilza Alves da Silva</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJ9VVX5RGRDN2F66AQ6Y</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>22/06/48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -779,6 +865,16 @@
         </is>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>26/04/23</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -790,22 +886,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amara Maria A. Da Silva</t>
+          <t>Iraci Souza da Silva (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9VR5PRA29EFC5Q8AM3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>03/01/50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -814,6 +910,16 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>30/08/23</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -825,22 +931,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ana Lucia Souza Luz</t>
+          <t>Irene de Paula Melo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9VSTB38F2V3B8N8KQV</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11/09/40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -849,6 +955,16 @@
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>09/04/23</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -860,22 +976,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ana Luiza Batista Da Silva</t>
+          <t>Josefa Francisca de Araújo (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJ9VAG797WYZZ644W3TZ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>31/10/47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-11-12 00:00:00</t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -884,6 +1000,16 @@
         </is>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>15/04/23</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -895,22 +1021,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>André José Vieira Torres</t>
+          <t>Josefa Gonçalves da Costa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9WDE7ZVGDH51G8X9DQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>05/05/46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -919,6 +1045,16 @@
         </is>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>31/07/23</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -930,22 +1066,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arlene Souza De Alburquerque</t>
+          <t>Josefa Pereira Silva</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJ9W0PMNF9BT03V56N5S</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>18/08/47</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -954,6 +1090,16 @@
         </is>
       </c>
       <c r="G15" t="inlineStr">
+        <is>
+          <t>20/09/23</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -965,22 +1111,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Azenilda Ferreira De Oliveira</t>
+          <t>Judite Cardoso de Oliveira (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9W2SW46GS52A768YK1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/10/48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -989,6 +1135,16 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>18/04/23</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1000,22 +1156,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Berenice Correia Alves De Carvalho</t>
+          <t>Julieta Siqueira de Melo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJ9W92PZQ11632Z4NEDK</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>18/05/49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1024,6 +1180,16 @@
         </is>
       </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>25/07/23</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1035,30 +1201,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Carlos Roberto De Lima</t>
+          <t>Lindalva de Assis Vieira</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>01GX3KEJ9XR0AAPCFGHGF2AGRC</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21/04/57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>28/03/23</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1070,30 +1246,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Clara Virgínia Correia Silva</t>
+          <t>Luiza Maria Roque dos Santos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>01GX3KEJ9XW3M7V2SCCAC518AX</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19/09/62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1105,22 +1291,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clarice Ferreira Da Costa</t>
+          <t>Madalena Viana da Silva</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJ9XMEG424989CN47YY8</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>25/05/32</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1129,6 +1315,16 @@
         </is>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>13/08/23</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1140,22 +1336,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cleonice Maria De Andrade Cordeiro</t>
+          <t>Maria do Carmo de Oliveira Rosas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJ9X7T6JQ4KQ5RJH1WYC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16/07/55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1164,6 +1360,16 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>04/09/23</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1175,22 +1381,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Creusa Dias Murayama</t>
+          <t>Maria dos Santos Melo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJ9XD8YCW4VV8NCXNE4Y</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>30/07/57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1199,6 +1405,16 @@
         </is>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>28/05/23</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1210,22 +1426,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cristina Farias De Araújo Danfit</t>
+          <t>Maria Elizabete Maciel G. Silva</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJ9XKDRNR0BNYACGHJM8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/11/58</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1234,6 +1450,16 @@
         </is>
       </c>
       <c r="G23" t="inlineStr">
+        <is>
+          <t>17/04/23</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1245,30 +1471,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dalva Lucia Alves Dias</t>
+          <t>Maria Eunice Queiroz de S. Silva</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9YWHCXG2NA95RV76RT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>24/12/42</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>15/05/23</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1280,30 +1516,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Diva Cunha Dos Santos</t>
+          <t>Maria José da Conceição</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>01GX3KEJ9Y784EWSVD75VD74EA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25/11/52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>16/09/23</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1315,22 +1561,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dorotheia Barbosa Diniz</t>
+          <t>Mariza Fernandes Marques da Silva</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJ9Y4233N55FBWR515Q0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>05/09/37</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1339,6 +1585,16 @@
         </is>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>20/05/23</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1350,22 +1606,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dulcinete Silva Rodrigues Leite</t>
+          <t>Marleide da Costa Matias</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9YX0RBRGFB9DNZBKZR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>05/10/45</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1374,6 +1630,16 @@
         </is>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>09/05/23</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1385,22 +1651,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Edilazir Pires Mourão</t>
+          <t xml:space="preserve">Marlene Frazão de Lima (Bolsa 100%) </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJ9Y16M6D51S7HV3THRK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16/08/41</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1409,6 +1675,16 @@
         </is>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1420,22 +1696,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edilene</t>
+          <t>Nanci Maria de Souza</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJ9YT1T01GJ4BZ3B2WYR</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/02/63</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1444,6 +1720,16 @@
         </is>
       </c>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>13/09/23</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1455,30 +1741,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edilza Alves Da Silva</t>
+          <t>Nerivaldo Batista dos Santos (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>01GX3KEJ9Z6TD4M021AN07N9JN</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>03/12/51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>25/06/23</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1490,30 +1786,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ednalda Tavares De Lima</t>
+          <t>Raquel de Queiroz</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJ9Z31R825ZC2M5VBCMF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/07/63</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>24/07/23</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1525,22 +1831,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ednalva Tenório Da Silva</t>
+          <t>Rosita de Azevedo Rocha</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJ9Z0RZ0VRQA7SNEYJWE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>09/05/36</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2022-10-10 00:00:00</t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1549,6 +1855,16 @@
         </is>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>03/09/23</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1560,30 +1876,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ednazir Tavares Dos Santos</t>
+          <t>Suely Pereira Santos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJ9ZB3PAAPGFDPPCBAYE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>04/09/58</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
+        <is>
+          <t>04/06/23</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1595,30 +1921,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eliane Barbosa Da Silva</t>
+          <t>Yclea Cervino</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJ9ZS7K6R0Q8839ZS39B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>21/09/37</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>16/09/23</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1630,30 +1966,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Eliane Vieira Dos Santos</t>
+          <t>Eliane Vieira dos Santos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJ9Z51PNT7YG11DVSXET</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>02/08/57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TQ7h</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>PL7h</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>23/07/23</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1665,30 +2011,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Eliete Alburqueque De Oliveira</t>
+          <t>Maria da Conceição da R. Silva (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA04G91AA82RESSGJN2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t> </t>
+          <t>28/01/39</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>28/03/23</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1700,30 +2056,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Elisabeth Francisca Da Silva Pereira</t>
+          <t>Maria do Carmo da Silva</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJA0AG1B4HAWGJXMJT21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14/04/60</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2022-10-15 00:00:00</t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>07/05/23</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1735,30 +2101,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ernandes Da Silva</t>
+          <t>Maria Helena de Santana</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA05K1VSQVG7KBPCJSN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t> </t>
+          <t>31/03/66</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>20/05/23</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1770,30 +2146,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Eunice Agripina De Araújo</t>
+          <t>Maria Madalena Mariano Soares</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA01XTZNJG7N80F58K0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t> </t>
+          <t>26/07/57</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
+        <is>
+          <t>05/08/23</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1805,30 +2191,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Eunice Farias Moreira</t>
+          <t>Marilene Alves Fontes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJA00X0KMK866EJE36XZ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25/01/61</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>PL7h</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1840,30 +2236,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eurídes Bezerra Calixto</t>
+          <t>Marinete Benígna Silva</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJA0W1Y42Q5QH5VR8MDV</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/01/52</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2022-10-04 00:00:00</t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>23/09/23</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1875,30 +2281,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Euridice Xavier Da Silva</t>
+          <t>Rejane Glauce de Santana</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA1DNCC2VW928NQGGQC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t> </t>
+          <t>23/10/59</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
+        <is>
+          <t>01/08/23</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1910,30 +2326,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fátima Maria Chaves Da Silva</t>
+          <t>Sonia Natalia Mariano Araújo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA1T1EBV8G49QZQ77GE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>24/12/55</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
+        <is>
+          <t>12/08/23</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1945,30 +2371,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Francisca Maria De Santana</t>
+          <t>Viviane Conceição Menezes de Melo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>01GX3KEJA123KKJWNWAZ4SEFPE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12/09/73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>TQ7h</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>17/04/23</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1980,30 +2416,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Francisca Oliveira Da Silva</t>
+          <t>Waldemar Lopes Ferraz Junior</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA1DBTAQ6KBKDT2Q424</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t> </t>
+          <t>15/12/67</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ7h</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>24/05/23</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2015,30 +2461,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Genilde Francisca Da Silva Costa</t>
+          <t>Ana Luiza Batista da Silva</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>01GX3KEJA1AQHRMQD7V45CHE37</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>TQ8h</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
+        <is>
+          <t>08/11/22</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2050,22 +2506,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gercina Andrade Vieira</t>
+          <t>Celia Maria Domingos dos Santos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA19Z338HCS1JCY8BE9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t> </t>
+          <t>03/08/47</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2074,6 +2530,16 @@
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>06/09/23</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2085,22 +2551,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gilvanice Gualberto Vilela</t>
+          <t>Dorotheia Barboza Diniz</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA1YC5YX2SCPNPA38H5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t> </t>
+          <t>05/08/42</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2109,6 +2575,16 @@
         </is>
       </c>
       <c r="G48" t="inlineStr">
+        <is>
+          <t>03/09/23</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2120,22 +2596,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Glauciane Albuquerque Da Silva</t>
+          <t>Edinalva Tenório da Silva</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA2WC4SKG5E1XSZZHAT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t> </t>
+          <t>07/07/58</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2144,6 +2620,16 @@
         </is>
       </c>
       <c r="G49" t="inlineStr">
+        <is>
+          <t>09/08/23</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2155,30 +2641,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hermon Augusto Da Costa Braga</t>
+          <t>Ednazir Tavares dos Santos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA21B1AVN6MFZ63S2YD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12/10/43</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>12/03/23</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2190,30 +2686,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hilda Nogueira</t>
+          <t>Eliane Barbosa da Silva</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>01GX3KEJA2SJDBRM6EG3PNB597</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25/05/55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>TQ8h</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>05/03/23</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2225,30 +2731,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hildelena Souza Soares</t>
+          <t>Elisabeth Francisca da Silva Pereira</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA2WWNQSDQH5DYZ8QTE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16/03/52</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
+        <is>
+          <t>07/03/23</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2260,22 +2776,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hosana Freitas Do Nascimento</t>
+          <t>Eunice Farias Moreira</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA2E6E3QQS7AQTQJFDG</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t> </t>
+          <t>21/06/43</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2284,6 +2800,16 @@
         </is>
       </c>
       <c r="G53" t="inlineStr">
+        <is>
+          <t>05/07/23</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2295,30 +2821,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Iracema Zulmira Soares Lins</t>
+          <t>Eurídes Bezerra Calixto (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>01GX3KEJA2AFMAREWJ0N327ACZ</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17/10/55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>TQ8h</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
+        <is>
+          <t>08/04/23</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2330,22 +2866,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Iraci Souza Da Silva</t>
+          <t>Genilde Francisca da Silva Costa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA2WFMYZ3Z8K1938ZH9</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t> </t>
+          <t>26/07/38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2354,6 +2890,16 @@
         </is>
       </c>
       <c r="G55" t="inlineStr">
+        <is>
+          <t>15/07/23</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2365,30 +2911,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Iraneide Bezerra Freire</t>
+          <t>Hilda Nogueira</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA3YT6P6XT9TW4134Y1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t> </t>
+          <t>04/04/46</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>21/08/23</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2400,22 +2956,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Iranete Maria Ferreira</t>
+          <t>Iracema Zulmira Soares Lins</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA3QYMXBQSV4KZQVZZ3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14/09/47</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2424,6 +2980,16 @@
         </is>
       </c>
       <c r="G57" t="inlineStr">
+        <is>
+          <t>08/03/23</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2435,30 +3001,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Irany Bezerra Freire</t>
+          <t>Irene Arcelino de Lima</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA3GEYXC8B3Q0YPZXQK</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>05/08/47</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2470,30 +3046,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Irene Arcelino De Lima</t>
+          <t>José Araújo de Lima Sobrinho</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA3D53FPM7YFN9PY3X8</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t> </t>
+          <t>08/03/59</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
+        <is>
+          <t>16/05/23</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2505,22 +3091,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Irene De Paula Melo</t>
+          <t>Lucia Maria da Silva</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA3E957MX88F0DEJ4ZW</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/02/53</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2529,6 +3115,16 @@
         </is>
       </c>
       <c r="G60" t="inlineStr">
+        <is>
+          <t>05/09/23</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2540,22 +3136,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ivania Silva De Andrade</t>
+          <t>Maria Araújo Lima Filha</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA3WGMA600JGA4DGYNG</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t> </t>
+          <t>13/09/56</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2564,6 +3160,16 @@
         </is>
       </c>
       <c r="G61" t="inlineStr">
+        <is>
+          <t>10/10/22</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2575,30 +3181,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ivanize Ferreira De Moraes</t>
+          <t>Maria Carmelita da Silva</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA31TY6S72595QG3JS3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t> </t>
+          <t>23/08/44</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>27/08/23</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2610,30 +3226,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ivone Gama Da Costa Braga</t>
+          <t>Maria das Graças de Oliveira</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA491KBCG8ZVVDC0V07</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14/08/55</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
+        <is>
+          <t>15/05/23</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2645,22 +3271,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ivonete De Souza Oliveira</t>
+          <t>Maria de Lurdes da Costa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA43V2FADWDBGCDYR5A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t> </t>
+          <t>20/04/44</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2669,6 +3295,16 @@
         </is>
       </c>
       <c r="G64" t="inlineStr">
+        <is>
+          <t>28/05/23</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2680,30 +3316,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ivonete Fabrício Mendes</t>
+          <t>Maria Marinete Gomes da Silva</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA43PP0QSC40VNB2YR4</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t> </t>
+          <t>30/08/46</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
+        <is>
+          <t>19/07/23</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2715,22 +3361,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ivonete Maria Da Conceição</t>
+          <t>Maria Zuleide Farias Gonçalves</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA4K1NHK0Y6B387GW3T</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16/06/46</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2739,6 +3385,16 @@
         </is>
       </c>
       <c r="G66" t="inlineStr">
+        <is>
+          <t>31/07/23</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2750,22 +3406,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jandira Câmara Gusmão Cardoso</t>
+          <t>Marisete Rodrigues de Araújo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA4KET6KFRCC7XD3M1S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>17/03/42</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2774,6 +3430,16 @@
         </is>
       </c>
       <c r="G67" t="inlineStr">
+        <is>
+          <t>26/08/23</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2785,22 +3451,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jesoneide Marques Vieira</t>
+          <t>Marlene Gomes de Lima</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA41SFWKZD56A6VSGP6</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>16/08/58</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2809,6 +3475,16 @@
         </is>
       </c>
       <c r="G68" t="inlineStr">
+        <is>
+          <t>08/07/23</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2820,30 +3496,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Joana Santos Coelho Da Paz</t>
+          <t>Marlene Rosendo de Sena</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA5EVACGSQXJF3PH5S6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t> </t>
+          <t>13/05/57</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
+        <is>
+          <t>23/09/23</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2855,22 +3541,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>João Batista Dos Santos</t>
+          <t>Marluce Andrade Montenegro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA5W0472XSS3RVNYGE5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t> </t>
+          <t>24/11/48</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2879,6 +3565,16 @@
         </is>
       </c>
       <c r="G70" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2890,30 +3586,40 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>José Araujo De Lima Sobrinho</t>
+          <t>Norma Lúcia Patrícia de Souza</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>01GX3KEJA52BNG17W5RKAQZR5B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>27/07/59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>TQ8h</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
+        <is>
+          <t>13/09/23</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2925,22 +3631,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>José Bonifácio De A. Silva</t>
+          <t>Pedro Alexandre Amâncio da Silva</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA5NPVWPHYG23118FEE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t> </t>
+          <t>29/06/68</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2949,6 +3655,16 @@
         </is>
       </c>
       <c r="G72" t="inlineStr">
+        <is>
+          <t>02/08/23</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2960,30 +3676,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Josefa Antônia Oliveira Da Silva</t>
+          <t>Risolene Lazaro Alves</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>01GX3KEJA5P26Y29C6ZFJFE1DG</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>06/08/49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>TQ8h</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
+        <is>
+          <t>18/04/23</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2995,22 +3721,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Josefa Francisca De Araújo</t>
+          <t>Rosileide Maria da Silva Reis</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA5FV436A7QH2WCQ9WF</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t> </t>
+          <t>29/10/60</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3019,6 +3745,16 @@
         </is>
       </c>
       <c r="G74" t="inlineStr">
+        <is>
+          <t>18/03/23</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3030,30 +3766,40 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Josefa Gonçalves Da Costa</t>
+          <t>Severina Maria da Costa</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>01GX3KEJA5RVMA1PKSE02D8XBC</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>02/02/50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>TQ8h</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2022-12-30 00:00:00</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
+        <is>
+          <t>21/09/22</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3065,30 +3811,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Josefa Luiza Gomes Melo</t>
+          <t>Suely Martins Gomes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA6WHYKZCAWVGPGDHE4</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/08/63</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3100,22 +3856,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Josefa Maria Da Conceição Silva</t>
+          <t>Vera Lúcia de Oliveira</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA6S0JJQVC154EZQCKZ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25/11/51</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3124,6 +3880,16 @@
         </is>
       </c>
       <c r="G77" t="inlineStr">
+        <is>
+          <t>18/08/23</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3135,30 +3901,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Josefa Pereira Silva</t>
+          <t>Creusa Dias Murayama</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA6TEC70ZEAZY5N2X2Z</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25/11/50</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3170,30 +3946,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Josetania Gonçaves Da Silva</t>
+          <t>Irany Bezerra Freire</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA64EFHET2RDGHW87PG</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14/12/65</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
+        <is>
+          <t>21/03/23</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3205,30 +3991,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Judite Cardoso De Oliveira</t>
+          <t>Lindalva Mariza de Santana Castro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA6D992TNNJJWMCF1NG</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/08/60</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
+        <is>
+          <t>25/07/23</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3240,30 +4036,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Julieta Siqueira De Melo</t>
+          <t>Marlene Almeida da Silva</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA6YBDY0ASZ1BJ76RB3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t> </t>
+          <t>18/10/53</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
+        <is>
+          <t>18/07/23</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3275,30 +4081,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kátia Maria Alves De Castro Nunes</t>
+          <t>Nazidir Maria Nunes</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJA6PP3BSDWZFXBDKC9G</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t> </t>
+          <t>30/04/55</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
+        <is>
+          <t>11/09/23</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3310,30 +4126,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Laudicéa Carlos Tenório</t>
+          <t>Oreny Bezerra Freire (Bolsa 50%)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>01GX3KEJA7J8KQ65ECYEJETAGZ</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>22/01/48</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>TQ8h</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
+        <is>
+          <t>22/04/23</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3345,30 +4171,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Leuzeni De Vasconcelos Salgues</t>
+          <t>Rosa Maria Pantaleão Camara Moraes</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA7F9E9SAKYWB2E7A6Q</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>28/06/00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TQ8h</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
+        <is>
+          <t>23/05/23</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3380,30 +4216,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lindalva De Assis Vieira</t>
+          <t>Alda Gomes de Oliveira</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA741R0FECJ94X32JER</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01/09/55</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>02/04/23</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3415,30 +4261,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lindalva Marisa De Santana</t>
+          <t>Almira Gomes de Oliveira</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJA7PMWDAE0W3AF5BPF7</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>20/03/59</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2022-12-01 00:00:00</t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3450,22 +4306,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lucia Antônia Florentina Souza</t>
+          <t>Ana Lucia Souza Luz</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA7NBH3C2GCDBJR6J3A</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>11/09/74</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3474,6 +4330,16 @@
         </is>
       </c>
       <c r="G87" t="inlineStr">
+        <is>
+          <t>13/12/22</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3485,30 +4351,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lucia Maria Belarmino</t>
+          <t>André José Vieira Torres</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA7ZJD4GDRN1HS7495W</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/02/72</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
+        <is>
+          <t>22/07/23</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3520,30 +4396,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lucia Maria da Silva</t>
+          <t>Azenilda Ferreira de Oliveira</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA7NEVNMP6RWRK9GMVA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/09/55</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
+        <is>
+          <t>25/04/23</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3555,30 +4441,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lucidalva Das Graças Bezerra De Souza</t>
+          <t>Dalva Lucia Alves Dias</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>01GX3KEJA8N4HJ3XZDH02C6ERM</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>15/12/53</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>QS7h</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
+        <is>
+          <t>30/05/23</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3590,22 +4486,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lucy Do Nascimento Silva</t>
+          <t>Dulcinete Silva Rodrigues Leite</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA8E5CXB8Y5CVX1HK4Q</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t> </t>
+          <t>26/04/50</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3614,6 +4510,16 @@
         </is>
       </c>
       <c r="G91" t="inlineStr">
+        <is>
+          <t>11/04/23</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3625,30 +4531,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Luiza Maria Roque Dos Santos</t>
+          <t>Ednalda Tavares de Lima (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA8T1Z9GCJK8D2TRV9D</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t> </t>
+          <t>22/09/56</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>19/12/22</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3660,30 +4576,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Madalena Viana Da Silva</t>
+          <t>Eliane Francisca da Silva</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJA8W0ZBVWHQYZ8P7RNW</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t> </t>
+          <t>09/07/64</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
+        <is>
+          <t>19/09/23</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3695,22 +4621,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Marcia Maria Carneiro Da Silva</t>
+          <t>Eunice Agripina de Araújo</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA88ARS9RCA8QJW4P7F</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>26/02/36</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3719,6 +4645,16 @@
         </is>
       </c>
       <c r="G94" t="inlineStr">
+        <is>
+          <t>23/08/23</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3730,30 +4666,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Marcia Maria De Santana Mendes</t>
+          <t>Euridice Xavier da Silva</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJA8QTNSCJEEK4YSJS6X</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t> </t>
+          <t>08/08/48</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
+        <is>
+          <t>05/09/23</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3765,22 +4711,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Margarete Feitosa Chaves</t>
+          <t>Hosana Freitas do Nascimento</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJA8F32YDV4ZQ2T8ZV4S</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14/07/54</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3789,6 +4735,16 @@
         </is>
       </c>
       <c r="G96" t="inlineStr">
+        <is>
+          <t>12/04/23</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3800,22 +4756,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Maria Alves Dantas</t>
+          <t>Ivone Carlos Araújo de Souza</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA97ZPQWQM00NF8MGWR</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t> </t>
+          <t>27/03/53</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3824,6 +4780,16 @@
         </is>
       </c>
       <c r="G97" t="inlineStr">
+        <is>
+          <t>05/09/23</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3835,30 +4801,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Maria Amorim De Albuquerque Meira</t>
+          <t>Izabela Oliveira de Araújo</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>01GX3KEJA99EBGKR6SKKC41667</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>30/05/84</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>QS7h</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
+        <is>
+          <t>20/09/23</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3870,22 +4846,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Maria Aparecida Cantarelli De Oliveira</t>
+          <t>João Batista dos Santos (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA9JFBJPHMJ5PE2S9TP</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01/06/52</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3894,6 +4870,16 @@
         </is>
       </c>
       <c r="G99" t="inlineStr">
+        <is>
+          <t>21/05/23</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3905,22 +4891,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Maria Aparecida Da Silva Oliveira</t>
+          <t>José Bonifácio de A. Silva</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJA9GKEFWPNNP6SBS5A0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>27/06/41</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3929,6 +4915,16 @@
         </is>
       </c>
       <c r="G100" t="inlineStr">
+        <is>
+          <t>21/03/23</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3940,22 +4936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Maria Araújo Lima Filha</t>
+          <t>José Carlos Alves de Souza</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJA9CD67D6KWY0JS5CHX</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25/08/52</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2022-10-13 00:00:00</t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3964,6 +4960,16 @@
         </is>
       </c>
       <c r="G101" t="inlineStr">
+        <is>
+          <t>05/09/23</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3975,30 +4981,40 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Maria Carmelita Da Silva</t>
+          <t>Josefa Maria da Conceição Silva (Deda)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJA9WNDVSDVPN5YM538J</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t> </t>
+          <t>03/09/49</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
+        <is>
+          <t>09/04/23</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4010,22 +5026,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Maria Celeste Batista Da Silva</t>
+          <t>Katia Maria Alves de Castro Nunes</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJAAXR0S1F3796E30QE9</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t> </t>
+          <t>29/09/60</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4034,6 +5050,16 @@
         </is>
       </c>
       <c r="G103" t="inlineStr">
+        <is>
+          <t>24/09/23</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4045,22 +5071,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Maria Consuelo De Holanda</t>
+          <t>Lindaci Pereira Mendonça</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAAARVT153P39S088CA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>05/07/68</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4069,6 +5095,16 @@
         </is>
       </c>
       <c r="G104" t="inlineStr">
+        <is>
+          <t>09/09/23</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4080,30 +5116,40 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Maria Cristina Da Silva</t>
+          <t>Lucidalva das Graças Bezerra de Souza</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAAMTYCX2GSVJ2ZBTKM</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>22/08/48</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
+        <is>
+          <t>27/04/23</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4115,30 +5161,40 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Maria Da Conceição Campos Do Nascimento</t>
+          <t>Lucy do Nascimento Silva (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAAY8GH21275YXYZT1Z</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>21/09/46</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
+        <is>
+          <t>22/08/23</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4150,22 +5206,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Maria Da Conceição Da R. Silva</t>
+          <t>Maria Amorim de Albuquerque Meira</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAA30EHAG5WTXRG6AJX</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>19/10/43</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4174,6 +5230,16 @@
         </is>
       </c>
       <c r="G107" t="inlineStr">
+        <is>
+          <t>07/08/23</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4185,22 +5251,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Maria Da Paz De Lima</t>
+          <t>Maria Auxiliadora da Silva</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAAHAN6DSGHCX6QP5S7</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t> </t>
+          <t>29/02/52</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4209,6 +5275,16 @@
         </is>
       </c>
       <c r="G108" t="inlineStr">
+        <is>
+          <t>05/09/23</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4220,30 +5296,40 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Maria Da Paz Rufino Da Silva</t>
+          <t>Maria da Conceição C. do Nascimento</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJABQJ56J3TQSW60HHVQ</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>16/06/56</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
+        <is>
+          <t>14/03/23</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4255,22 +5341,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Maria Das Graças De A. S.</t>
+          <t>Maria de Fátima dos Santos Francisco</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJABCK414PBKKSVEYX9X</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t> </t>
+          <t>23/09/56</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4279,6 +5365,16 @@
         </is>
       </c>
       <c r="G110" t="inlineStr">
+        <is>
+          <t>28/02/23</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4290,22 +5386,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Maria Das Graças De Oliveira</t>
+          <t>Maria de Lourdes Menezes de Melo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJABVJD625A7G6QJH7QN</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/11/48</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4314,6 +5410,16 @@
         </is>
       </c>
       <c r="G111" t="inlineStr">
+        <is>
+          <t>11/09/23</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4325,22 +5431,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Maria Das Graças Moreira De Souza</t>
+          <t>Maria Lopes Freitas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJABTZ5JPTHNGSB32CC8</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t> </t>
+          <t>20/04/65</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4349,6 +5455,16 @@
         </is>
       </c>
       <c r="G112" t="inlineStr">
+        <is>
+          <t>20/09/23</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4360,30 +5476,40 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Maria De Fátima Da Silva</t>
+          <t>Maria Lucimar Alcoforado dos Santos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJAB5RW2KRAHC6P90T1H</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/09/49</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
+        <is>
+          <t>20/09/23</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4395,30 +5521,40 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Maria De Fátima Dos Reis</t>
+          <t>Maria Margarida da Silva</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJABDPTHZVKMR59CG6NP</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t> </t>
+          <t>30/08/50</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>23/07/23</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4430,22 +5566,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Maria De Fátima Dos Santos Francisco</t>
+          <t>Marta Leonora de Oliveira Ferreira</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJABS2SS389RT8VHRDX4</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/11/59</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4454,6 +5590,16 @@
         </is>
       </c>
       <c r="G115" t="inlineStr">
+        <is>
+          <t>19/09/23</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4465,30 +5611,40 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Maria De Fátima Ferreira Da Silva</t>
+          <t>Missiana Francisca Alves</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJACN96RZNF7XTEGT9NC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t> </t>
+          <t>30/05/77</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
+        <is>
+          <t>19/09/23</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4500,22 +5656,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Maria De Fátima Rocha De Souza</t>
+          <t>Myrtes Vilas Boas de Azevedo</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJACGQKWVCFX72A7BVH7</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>05/10/52</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4524,6 +5680,16 @@
         </is>
       </c>
       <c r="G117" t="inlineStr">
+        <is>
+          <t>06/04/23</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4535,22 +5701,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Maria De Lourdes Da Costa</t>
+          <t>Regina Pereira da Silva</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJACR2VTHRGREC6FC9MR</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t> </t>
+          <t>28/06/00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2022-11-14 00:00:00</t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4559,6 +5725,16 @@
         </is>
       </c>
       <c r="G118" t="inlineStr">
+        <is>
+          <t>19/09/23</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4570,30 +5746,40 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Maria De Lourdes Meneses De Melo</t>
+          <t>Rejane Luise Azevedo de Lira</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJACY1XYGMEXR5ZNB5JT</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t> </t>
+          <t>18/09/60</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
+        <is>
+          <t>29/08/23</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4605,22 +5791,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Maria De Lurdes Siqueira De Oliveira</t>
+          <t>Renilza Malafaia Gomes</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJACVPXQNN9G4PVEPTMW</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t> </t>
+          <t>17/08/39</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4629,6 +5815,16 @@
         </is>
       </c>
       <c r="G120" t="inlineStr">
+        <is>
+          <t>05/08/23</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4640,22 +5836,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Maria Do Carmo</t>
+          <t>Risonete Gadelha Moreira</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJACZMN1757Q4JQ7N72K</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>17/12/45</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4664,6 +5860,16 @@
         </is>
       </c>
       <c r="G121" t="inlineStr">
+        <is>
+          <t>30/07/23</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4675,30 +5881,40 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Maria Do Carmo Da Silva</t>
+          <t>Silvana Carla Alves Siqueira</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJACBF98JF2M42FC01TN</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>29/10/72</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
+        <is>
+          <t>19/09/23</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4710,22 +5926,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Maria Do Carmo Miranda E Silva</t>
+          <t>Sueli Batista da Silva</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJADQXX1WZMEXW6Z4VPX</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t> </t>
+          <t>30/09/72</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4734,6 +5950,16 @@
         </is>
       </c>
       <c r="G123" t="inlineStr">
+        <is>
+          <t>09/04/23</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4745,22 +5971,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Maria Do Carmo Queiroz De Souza</t>
+          <t>Valeria Rodrigues de Silva</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJADJTTHR79A4V2QX8CX</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>28/06/00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS7h</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4769,6 +5995,16 @@
         </is>
       </c>
       <c r="G124" t="inlineStr">
+        <is>
+          <t>10/09/23</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4780,17 +6016,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Maria Do Socorro Dos Satos Santiago</t>
+          <t>Ada Ourem dos Santos Melo</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJADQ0RGDWN11S1CSP12</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t> </t>
+          <t>06/02/63</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4800,10 +6036,20 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
+        <is>
+          <t>11/09/23</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4815,17 +6061,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Maria Do Socorro Ferreira</t>
+          <t>Lucia Maria Valdevino da Silva</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAD921675XAXCMM3A14</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t> </t>
+          <t>26/05/43</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4835,10 +6081,20 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
+        <is>
+          <t>07/08/23</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4850,17 +6106,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Maria Do Socorro Vasconcelos</t>
+          <t>Maria Aparecida Cantarelli de Oliveira</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAD44MZD3YXX00GC0QC</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t> </t>
+          <t>07/09/59</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4870,10 +6126,20 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
+        <is>
+          <t>15/02/23</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4885,17 +6151,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Maria Dos Santos Melo</t>
+          <t>Maria do Carmo Queiroz de Souza</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAD5GWGH5EQQ05ZX44B</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t> </t>
+          <t>23/05/43</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4905,10 +6171,20 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL7h</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
+        <is>
+          <t>23/08/22</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4920,30 +6196,40 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Maria Elizabete Maciel Gonçalves Da Silva</t>
+          <t>Adriana Ferreira da Silva</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAD56T3CDGJTAS9PK5E</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t> </t>
+          <t>21/02/76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4955,22 +6241,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Maria Eunice Queiroz De S. Silva</t>
+          <t>Aldeci José de Miranda</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAEH0XQWFC7X0VF4AJW</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>24/11/57</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4979,6 +6265,16 @@
         </is>
       </c>
       <c r="G130" t="inlineStr">
+        <is>
+          <t>28/06/00</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4990,22 +6286,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Maria Geovana Sales De Melo</t>
+          <t>Altamira Amacleto da Silva</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAE4HHDMAJ440T796GN</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t> </t>
+          <t>03/10/56</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5014,6 +6310,16 @@
         </is>
       </c>
       <c r="G131" t="inlineStr">
+        <is>
+          <t>06/08/23</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5025,22 +6331,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Maria Helena De Santana</t>
+          <t>Ana Maria Freire</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAEX01XT8JKYWA8QD2E</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t> </t>
+          <t>22/03/65</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5049,6 +6355,16 @@
         </is>
       </c>
       <c r="G132" t="inlineStr">
+        <is>
+          <t>26/08/23</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5060,22 +6376,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Maria Inês De Souza</t>
+          <t>Berenice Correia Alves de Carvalho</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAEVF0Q0VT75DVTNFV7</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/02/53</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5084,6 +6400,16 @@
         </is>
       </c>
       <c r="G133" t="inlineStr">
+        <is>
+          <t>01/04/23</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5095,30 +6421,40 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Maria José Da Conceição</t>
+          <t>Cleonice Maria de Andrade Cordeiro</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAEFW1604X7QKPDF5J6</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>04/11/54</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>15/04/23</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5130,30 +6466,40 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Maria José Da Silva</t>
+          <t>Dilene Marques Rezende</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAE4YZGVSATA3RH42FP</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t> </t>
+          <t>08/09/46</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
+        <is>
+          <t>17/09/23</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5165,22 +6511,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Maria José Francisca Da Silva</t>
+          <t>Ernandes da Silva</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAEG9AHV8SBYNXCZCT9</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25/08/50</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5189,6 +6535,16 @@
         </is>
       </c>
       <c r="G136" t="inlineStr">
+        <is>
+          <t>03/05/23</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5200,30 +6556,40 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Maria José Miranda</t>
+          <t>Francisca Oliveira da Silva</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>01GX3KEJAF5A1VH2EHS64JT460</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>20/01/49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
           <t>QS8h</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
+        <is>
+          <t>22/08/23</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5235,30 +6601,40 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Maria José Pereira De Santana</t>
+          <t>Hermon Augusto da Costa Braga</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAFD8TFR4PHM0R508RQ</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>26/07/53</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
+        <is>
+          <t>04/10/22</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5270,30 +6646,40 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Maria Luiza Da Silva</t>
+          <t>Iraneide Bezerra Freire</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAF1GVZ3SZX6CEK0V4V</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>PL8h</t>
+          <t>17/02/67</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>16/04/23</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5305,30 +6691,40 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Maria Luzinete Da Silva</t>
+          <t>Ivania Silva de Andrade</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>01GX3KEJAF9JC2P19W01C7E71B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>03/10/60</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>QS8h</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
+        <is>
+          <t>22/05/23</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5340,22 +6736,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Maria Madalena Da Silva</t>
+          <t>Ivone Gama da Costa Braga</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAFD73EZ3MHP2KYG3ZY</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t> </t>
+          <t>19/11/50</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5364,6 +6760,16 @@
         </is>
       </c>
       <c r="G141" t="inlineStr">
+        <is>
+          <t>28/02/23</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5375,30 +6781,40 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Maria Margarida Da Silva</t>
+          <t>Ivonete Fabrício Mendes</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAFTM6CRZDSNRBKG3QH</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11/03/48</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>30/07/23</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5410,22 +6826,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Maria Marinete Gomes Da Silva</t>
+          <t>Jesoneide Marques Vieira</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAFVTWJM8B821M7T64M</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t> </t>
+          <t>23/10/55</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5434,6 +6850,16 @@
         </is>
       </c>
       <c r="G143" t="inlineStr">
+        <is>
+          <t>31/08/22</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5445,22 +6871,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Maria Menina</t>
+          <t>Josefa Antônia Oliveira da Silva (Bolsa 100%)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAG0T8K09RY7V893DGS</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>13/06/60</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5469,6 +6895,16 @@
         </is>
       </c>
       <c r="G144" t="inlineStr">
+        <is>
+          <t>30/08/23</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5480,22 +6916,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Maria Pater Da Silva</t>
+          <t>Josetânia Gonçalves da Silva</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAGHGG4MYXJ6MJZWYX4</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/09/62</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5504,6 +6940,16 @@
         </is>
       </c>
       <c r="G145" t="inlineStr">
+        <is>
+          <t>08/08/23</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5515,22 +6961,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Maria Socorro Ferreira</t>
+          <t>Jurandi Adema de Miranda</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAGK4VVDWGBJKNY3MX3</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01/10/50</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5539,6 +6985,16 @@
         </is>
       </c>
       <c r="G146" t="inlineStr">
+        <is>
+          <t>05/09/23</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5550,30 +7006,40 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Maria Zuleide Farias Gonçalves</t>
+          <t>Liliane de Andrade Miranda de Oliveira</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAGHRBDVCEJ7DF2NQJT</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t> </t>
+          <t>07/03/84</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2023-02-04 00:00:00</t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
+        <is>
+          <t>30/08/23</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5585,22 +7051,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mariano José Barbosa</t>
+          <t>Lucia Maria Belarmino</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAGDYS84GG6E3PBZGVK</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/05/73</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5609,6 +7075,16 @@
         </is>
       </c>
       <c r="G148" t="inlineStr">
+        <is>
+          <t>21/03/23</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5620,30 +7096,40 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Marilene Alves Pontes</t>
+          <t>Marcia Maria de Santana Mendes</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAG65JFVSG542S0DJG5</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>15/01/67</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>10/09/23</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5655,30 +7141,40 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Marinalva Alexandre Da Silva</t>
+          <t>Margarete Feitosa Campos de Oliveira</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>01GX3KEJAGR9E3YR16A89E0E90</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>28/06/53</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
           <t>QS8h</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="F150" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
+        <is>
+          <t>23/09/23</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5690,22 +7186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Marinalva Alexandre Montenegro</t>
+          <t>Maria Celeste Batista da Silva</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAGX401JXBH0Q6HMKQD</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t> </t>
+          <t>28/08/64</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5714,6 +7210,16 @@
         </is>
       </c>
       <c r="G151" t="inlineStr">
+        <is>
+          <t>29/04/23</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5725,22 +7231,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Marinete Benígna Silva</t>
+          <t>Maria da Conceição Santos da Cunha</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAHHB8FQ4TEXR8Y0BP8</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/12/61</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5749,6 +7255,16 @@
         </is>
       </c>
       <c r="G152" t="inlineStr">
+        <is>
+          <t>13/08/23</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5760,30 +7276,40 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Marisete Rodrigues De Araújo</t>
+          <t>Maria de Fátima da Silva</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAHMXJEHGG214B9F6KZ</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t> </t>
+          <t>06/07/57</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2023-02-19 00:00:00</t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
+        <is>
+          <t>23/03/23</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5795,30 +7321,40 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mariza Fernandes Marques Da Silva</t>
+          <t>Maria de Fátima Pereira Justiniano dos Reis</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAHD3J83QS8HZKM8KHW</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t> </t>
+          <t>28/02/53</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>28/05/23</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
           <t>DIB</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5830,22 +7366,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Marleide Da Costa Matias</t>
+          <t>Maria de Lurdes Nogueira dos Santos</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAHR97HWK80XVB3687Y</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/07/49</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5854,6 +7390,16 @@
         </is>
       </c>
       <c r="G155" t="inlineStr">
+        <is>
+          <t>18/09/23</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5865,22 +7411,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Marlene Almeida Da Silva</t>
+          <t>Maria José da Silva</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAHT3X2TMWVX3JY3AEW</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>25/12/53</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2023-02-17 00:00:00</t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5889,6 +7435,16 @@
         </is>
       </c>
       <c r="G156" t="inlineStr">
+        <is>
+          <t>11/05/23</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5900,22 +7456,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Marlene Frazão De Lima</t>
+          <t>Maria José Miranda da Rocha</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAHAEFGC5WBAYK2HXMR</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t> </t>
+          <t>06/08/63</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5924,6 +7480,16 @@
         </is>
       </c>
       <c r="G157" t="inlineStr">
+        <is>
+          <t>13/08/23</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5935,22 +7501,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Marlene Gomes De Lima</t>
+          <t>Maria José Pereira de Santana</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAHVWRE8YT0RZ1KKQZM</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t> </t>
+          <t>29/12/48</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5959,6 +7525,16 @@
         </is>
       </c>
       <c r="G158" t="inlineStr">
+        <is>
+          <t>15/08/23</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5970,22 +7546,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Marlene Rosendo De Sena</t>
+          <t>Maria Luzinete da Silva</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAJ1EGNAPQJVXMM6163</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t> </t>
+          <t>21/11/47</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5994,6 +7570,16 @@
         </is>
       </c>
       <c r="G159" t="inlineStr">
+        <is>
+          <t>31/10/22</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6005,22 +7591,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Marlene Veloso Vaz</t>
+          <t>Mariluce Santos</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAJ1W9FXJ96XVQET7P2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/06/51</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6029,6 +7615,16 @@
         </is>
       </c>
       <c r="G160" t="inlineStr">
+        <is>
+          <t>26/08/23</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6040,22 +7636,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Marli Maria Da Silva</t>
+          <t>Marinalva Alexandre da Silva</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAJ8NVKV8CT600W9R3Z</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t> </t>
+          <t>07/08/45</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6064,6 +7660,16 @@
         </is>
       </c>
       <c r="G161" t="inlineStr">
+        <is>
+          <t>18/03/23</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6075,30 +7681,40 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Marluce Andrade Montenegro</t>
+          <t>Martha Lúcia de Oliveira</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAJT1RP61NC04B9NJGE</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t> </t>
+          <t>02/05/60</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t> </t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
+        <is>
+          <t>09/09/23</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6110,22 +7726,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Mauricéia Tenório Pena</t>
+          <t>Quitéria Alexandre da Silva</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAKC21AHZ35YXSQEJZJ</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t> </t>
+          <t>13/01/57</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2022-05-16 00:00:00</t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6134,6 +7750,16 @@
         </is>
       </c>
       <c r="G163" t="inlineStr">
+        <is>
+          <t>28/05/23</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6145,22 +7771,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nazidir Maria Nunes</t>
+          <t>Raquel Brito da Silva</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAKP2N6W8SRP7R3DGJH</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PL7h</t>
+          <t>26/07/45</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6169,6 +7795,16 @@
         </is>
       </c>
       <c r="G164" t="inlineStr">
+        <is>
+          <t>10/05/23</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6180,22 +7816,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Neide Maria Baarbosa</t>
+          <t>Renilda da Costa Gadelha</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t> </t>
+          <t>01GX3KEJAKSPVWX1Z22DSQ5TH4</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t> </t>
+          <t>22/04/56</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6204,6 +7840,16 @@
         </is>
       </c>
       <c r="G165" t="inlineStr">
+        <is>
+          <t>21/02/23</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6215,22 +7861,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Neite De Souza Almeida</t>
+          <t>Roseval Souto C. de Souza</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAKW895KQJ7MQ41Y4S6</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t> </t>
+          <t>18/07/58</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6239,6 +7885,16 @@
         </is>
       </c>
       <c r="G166" t="inlineStr">
+        <is>
+          <t>26/04/23</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6250,22 +7906,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nerivaldo Batista Dos Santos</t>
+          <t>Severino José dos Santos</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TQ7h</t>
+          <t>01GX3KEJAK49GXH4EXYQ9JJZ8G</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t> </t>
+          <t>06/12/56</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t> </t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6274,6 +7930,16 @@
         </is>
       </c>
       <c r="G167" t="inlineStr">
+        <is>
+          <t>20/09/23</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6285,22 +7951,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Norma Lucia Patricia De Souza</t>
+          <t>Vilma Silva de Almeida</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAKR8N03NDV3KSS9Z58</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10/05/65</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2023-02-08 00:00:00</t>
+          <t>QS8h</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6310,7 +7976,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>HAS</t>
+          <t>07/09/23</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6320,30 +7996,40 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Oreny Bezerra Freire</t>
+          <t>Conceição Márcia Nogueira</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAMVPPF1HS1C5QYRR46</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
+          <t>08/12/47</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>PL8h</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>2022-10-25 00:00:00</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>DIB</t>
-        </is>
-      </c>
       <c r="G169" t="inlineStr">
+        <is>
+          <t>14/08/23</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6355,17 +8041,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Quitéria Alexandre Da Silva</t>
+          <t>Cristina Maria de Lima</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJAM30R4C20ABXC93YXB</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t> </t>
+          <t>18/01/51</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6375,10 +8061,20 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
+        <is>
+          <t>30/08/23</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6390,17 +8086,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Raquel Brito Da Silva</t>
+          <t>Everalda Vilas Boas Silva</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJAM8QP4FTGP9DJK74D0</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t> </t>
+          <t>03/10/48</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6410,10 +8106,20 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
+        <is>
+          <t>07/04/23</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6425,17 +8131,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Raquel De Queiroz</t>
+          <t>Maria Aparecida da Silva Oliveira</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAMWPGQ2P22Y4FAVFZ6</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t> </t>
+          <t>09/08/71</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6445,10 +8151,20 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>DIB</t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
+        <is>
+          <t>29/08/23</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6460,17 +8176,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rejane Glauce De Santana</t>
+          <t>Maria Cristina da Silva</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAM4A88K383TBSCGRG4</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12/12/56</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6480,10 +8196,20 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
+        <is>
+          <t>29/07/23</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6495,17 +8221,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Rejane Luise Azevedo De Lira</t>
+          <t>Maria Lúcia Meneses Vilas Boas</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAMCVK498XHJZQQW8Q5</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t> </t>
+          <t>08/03/46</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6515,10 +8241,20 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
+        <is>
+          <t>17/09/23</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6530,17 +8266,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Renilda Da Costa Gadelha</t>
+          <t>Maria Luiza da Silva</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>QS8h</t>
+          <t>01GX3KEJAMEZJ31YK9QR092GHT</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t> </t>
+          <t>04/12/57</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6550,10 +8286,20 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
+        <is>
+          <t>20/05/23</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6565,17 +8311,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Renilza Malafaia Gomes</t>
+          <t>Severina Ribeiro da Silva Calisto</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01GX3KEJAM2AJDCWG912KHT5VG</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12/06/44</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6585,10 +8331,20 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
+        <is>
+          <t>09/05/22</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>DIB</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6600,30 +8356,40 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Risolene Lazaro Alves</t>
+          <t>Solange Maria Santos de Oliveira</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>TQ8h</t>
+          <t>01GX3KEJAN34ZT6NPN6XQH5W80</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t> </t>
+          <t>31/08/59</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2022-10-10 00:00:00</t>
+          <t> </t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PL8h</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
+        <is>
+          <t>29/08/23</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6633,19 +8399,15 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Risonete Gadelha Moreira</t>
-        </is>
-      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>QS7h</t>
+          <t>01H00A56JG056R83NRSJ6R175D</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t> </t>
+          <t>09/05/23</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6660,734 +8422,15 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Rita Maria Do Nascimento</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Rosa Maria Pantaleao</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>PL8h</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Rosileide Maria Da Silva Reis</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>TQ8h</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>2022-09-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Rosita De Azevedo Rocha</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>TQ7h</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Severina Maria Da Costa</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>TQ8h</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Severina R. S. Calisto</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>PL8h</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>DIB</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Stephanie Durval</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Sueli Batista Da Silva</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Suely Martins Gomes</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>TQ8h</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Suely Pereira Santos</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>TQ7h</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>2022-09-27 00:00:00</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>DIB</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>DIB</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Taís Rigina Lima Do Nascimento</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Teresinha Eudacia Barbosa</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Teresinha Maria De Jesus</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Terezinha Leal Braga</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Terezinha Maria De Jesus</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Viviane Conceição Menezes De Melo</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>PL7h</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Waldemar Lopes F. Junior</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>PL7h</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Yclea Cervino</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>TQ7h</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>2022-10-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Zenaide Maria De Souza</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Aaatest</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>TQ7h</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>PL8h</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>2023-02-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>DIB</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
+          <t>09/05/23</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
         <is>
           <t> </t>
         </is>
